--- a/02_MasterWifoMannheim/99_Backup/Course159.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course159.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D369A3B9231159D278746471FE5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94EF6FF7-3188-4871-BCF8-448E2DE3040E}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 562 Business Analytics: Applications of Artificial Intelligence for Data-Driven Decision Making ACHTUNG: Kein Angebot im FSS 2021</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The increasing availability of data about customer behavior and operational processes calls for its systematic exploitation to improve decision-making in businesses. This course different Operations Management problems. In particular, machine learning approaches for supervised and unsupervised learning are introduced. For example, Neural Networks are presented to predict and optimize the performance of operations systems based on data. Applications in the areas of maintenance, production management, and the control of automated guided vehicles are discussed in detail. An introduction to the basics of programming with Python is provided. This is the basis for own applications and implementations of AI approaches by the students. Moreover, the students will leverage libraries of AI approaches. During the course, the students will work on several case studies and assignments (individually or in groups).</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>After this course, students are familiar with the fundamental concepts of different AI approaches. Students learn how to select suitable AI techniques to obtain insights from big data sets of real-world problems to make business decisions supported by the data. The students will develop programming skills that allow them to implement and apply AI approaches. Moreover, students are familiar with interfaces to libraries of AI approaches and how to tailor these implementations to problem-specific needs.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration:</t>
-  </si>
-  <si>
-    <t>Further information on registration: Website of the chair / “Student Portal”</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Integrated Lecture and Exercise 4 8</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Individual assignments, group assignments, and presentations</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Justus Arne Schwarz</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Operations Management (OPM)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,135 +420,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OPM 562 Business Analytics: Applications of Artificial Intelligence for Data-Driven Decision Making </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The increasing availability of data about customer behavior and operational processes calls for its systematic exploitation to improve decision-making in businesses. This course different Operations Management problems. In particular, machine learning approaches for supervised and unsupervised learning are introduced. For example, Neural Networks are presented to predict and optimize the performance of operations systems based on data. Applications in the areas of maintenance, production management, and the control of automated guided vehicles are discussed in detail. An introduction to the basics of programming with Python is provided. This is the basis for own applications and implementations of AI approaches by the students. Moreover, the students will leverage libraries of AI approaches. During the course, the students will work on several case studies and assignments (individually or in groups).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>After this course, students are familiar with the fundamental concepts of different AI approaches. Students learn how to select suitable AI techniques to obtain insights from big data sets of real-world problems to make business decisions supported by the data. The students will develop programming skills that allow them to implement and apply AI approaches. Moreover, students are familiar with interfaces to libraries of AI approaches and how to tailor these implementations to problem-specific needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Operations Management (OPM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further information on registration: Website of the chair / “Student Portal”</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Integrated Lecture and Exercise 4 8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Individual assignments, group assignments, and presentations</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dr. Justus Arne Schwarz</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
